--- a/tests/unit/out/citation scores.xlsx
+++ b/tests/unit/out/citation scores.xlsx
@@ -947,65 +947,41 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.9285714285714286</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
@@ -1019,9 +995,6 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
@@ -1035,33 +1008,21 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>2.2</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0.8333333333333334</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
@@ -1075,17 +1036,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
@@ -1099,9 +1054,6 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2.153846153846154</v>
-      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
@@ -1115,41 +1067,26 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0.7384615384615385</v>
-      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1.076923076923077</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0.5384615384615384</v>
-      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0.8333333333333334</v>
-      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1.666666666666667</v>
-      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -1163,17 +1100,11 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0.7523809523809524</v>
-      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0.8666666666666667</v>
-      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
@@ -1203,9 +1134,6 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
@@ -1219,33 +1147,21 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>2.933333333333333</v>
-      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0.8555555555555556</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
@@ -1259,9 +1175,6 @@
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
@@ -1307,17 +1220,11 @@
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>0.8571428571428571</v>
-      </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
@@ -1347,17 +1254,11 @@
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
@@ -1371,25 +1272,16 @@
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
@@ -1427,9 +1319,6 @@
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>1.466666666666667</v>
-      </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
@@ -1475,9 +1364,6 @@
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
@@ -1507,9 +1393,6 @@
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
@@ -1555,9 +1438,6 @@
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
@@ -1571,9 +1451,6 @@
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>1.063186813186813</v>
-      </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
@@ -1595,25 +1472,16 @@
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>3.6</v>
-      </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>1.6</v>
-      </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
@@ -1627,17 +1495,11 @@
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
@@ -1651,33 +1513,21 @@
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>1.076923076923077</v>
-      </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
@@ -1699,9 +1549,6 @@
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
@@ -1723,9 +1570,6 @@
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
@@ -1739,9 +1583,6 @@
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
@@ -1771,9 +1612,6 @@
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B105">
-        <v>1.466666666666667</v>
-      </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
@@ -1787,640 +1625,400 @@
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B107">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>1.733333333333333</v>
-      </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>0.7333333333333333</v>
-      </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B110">
-        <v>0.8666666666666667</v>
-      </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B112">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B115">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116">
-        <v>0.9327838827838828</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B117">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B118">
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B120">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B121">
-        <v>1.033333333333333</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122">
-        <v>0.8282051282051281</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B124">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B125">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B126">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B127">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B128">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B130">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B132">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B134">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B135">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B136">
-        <v>1.733333333333333</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B139">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B141">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B142">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B144">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B146">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B147">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B148">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B149">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B150">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B151">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B152">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B153">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B155">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B157">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B158">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B159">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B160">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B161">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B163">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B168">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B169">
-        <v>0.9615384615384616</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B170">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+    </row>
+    <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B171">
-        <v>0.8555555555555556</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+    </row>
+    <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B173">
-        <v>0.8282051282051281</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+    </row>
+    <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B175">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B176">
-        <v>0.8282051282051281</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+    </row>
+    <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B177">
-        <v>1.466666666666667</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B179">
-        <v>1.846153846153846</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B180">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B181">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
